--- a/branches/viral-load-suppression_fig-28/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/viral-load-suppression_fig-28/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T13:43:20+00:00</t>
+    <t>2023-02-07T13:44:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/viral-load-suppression_fig-28/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/viral-load-suppression_fig-28/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T13:44:50+00:00</t>
+    <t>2023-02-08T09:57:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/viral-load-suppression_fig-28/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/viral-load-suppression_fig-28/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T09:57:25+00:00</t>
+    <t>2023-02-08T09:57:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/viral-load-suppression_fig-28/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/viral-load-suppression_fig-28/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T09:57:31+00:00</t>
+    <t>2023-02-08T11:02:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/viral-load-suppression_fig-28/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/viral-load-suppression_fig-28/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T11:02:36+00:00</t>
+    <t>2023-02-08T11:03:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/viral-load-suppression_fig-28/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/viral-load-suppression_fig-28/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T11:03:46+00:00</t>
+    <t>2023-02-08T12:16:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/viral-load-suppression_fig-28/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/viral-load-suppression_fig-28/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T12:16:58+00:00</t>
+    <t>2023-02-08T12:21:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/viral-load-suppression_fig-28/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/viral-load-suppression_fig-28/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T12:21:52+00:00</t>
+    <t>2023-02-08T12:26:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/viral-load-suppression_fig-28/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/viral-load-suppression_fig-28/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T12:26:30+00:00</t>
+    <t>2023-02-08T12:26:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
